--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件收案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件收案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,430 +483,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21050</v>
+      </c>
+      <c r="C2" t="n">
+        <v>782007</v>
+      </c>
+      <c r="D2" t="n">
+        <v>811839</v>
+      </c>
+      <c r="E2" t="n">
+        <v>106632</v>
+      </c>
+      <c r="F2" t="n">
+        <v>333832</v>
+      </c>
       <c r="G2" t="n">
-        <v>869013</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1444887</v>
+      </c>
+      <c r="H2" t="n">
+        <v>123327</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2716</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22670</v>
+      </c>
+      <c r="C3" t="n">
+        <v>914240</v>
+      </c>
+      <c r="D3" t="n">
+        <v>950984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>115242</v>
+      </c>
+      <c r="F3" t="n">
+        <v>318055</v>
+      </c>
       <c r="G3" t="n">
-        <v>879723</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1686711</v>
+      </c>
+      <c r="H3" t="n">
+        <v>171426</v>
+      </c>
+      <c r="I3" t="n">
+        <v>81850</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26484</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24079</v>
+      </c>
+      <c r="C4" t="n">
+        <v>971043</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1009651</v>
+      </c>
+      <c r="E4" t="n">
+        <v>155358</v>
+      </c>
+      <c r="F4" t="n">
+        <v>269398</v>
+      </c>
       <c r="G4" t="n">
-        <v>923516</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1853632</v>
+      </c>
+      <c r="H4" t="n">
+        <v>221473</v>
+      </c>
+      <c r="I4" t="n">
+        <v>146323</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27350</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>26854</v>
+      </c>
+      <c r="C5" t="n">
+        <v>953888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>987571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>123851</v>
+      </c>
+      <c r="F5" t="n">
+        <v>262050</v>
+      </c>
       <c r="G5" t="n">
-        <v>981400</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>2009082</v>
+      </c>
+      <c r="H5" t="n">
+        <v>392691</v>
+      </c>
+      <c r="I5" t="n">
+        <v>191068</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24997</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30254</v>
+      </c>
+      <c r="C6" t="n">
+        <v>980968</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1015701</v>
+      </c>
+      <c r="E6" t="n">
+        <v>137111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>267184</v>
+      </c>
       <c r="G6" t="n">
-        <v>985147</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>2082831</v>
+      </c>
+      <c r="H6" t="n">
+        <v>381916</v>
+      </c>
+      <c r="I6" t="n">
+        <v>218331</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32334</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10506</v>
+        <v>39767</v>
       </c>
       <c r="C7" t="n">
-        <v>494314</v>
+        <v>1097269</v>
       </c>
       <c r="D7" t="n">
-        <v>503189</v>
+        <v>1135639</v>
       </c>
       <c r="E7" t="n">
-        <v>270136</v>
+        <v>188538</v>
       </c>
       <c r="F7" t="n">
-        <v>80416</v>
+        <v>335496</v>
       </c>
       <c r="G7" t="n">
-        <v>1039893</v>
+        <v>2325492</v>
       </c>
       <c r="H7" t="n">
-        <v>151546</v>
+        <v>397613</v>
       </c>
       <c r="I7" t="n">
-        <v>23688</v>
+        <v>218423</v>
       </c>
       <c r="J7" t="n">
-        <v>412</v>
+        <v>10016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14490</v>
+        <v>47670</v>
       </c>
       <c r="C8" t="n">
-        <v>564391</v>
+        <v>1112696</v>
       </c>
       <c r="D8" t="n">
-        <v>583169</v>
+        <v>1151970</v>
       </c>
       <c r="E8" t="n">
-        <v>71847</v>
+        <v>180905</v>
       </c>
       <c r="F8" t="n">
-        <v>304775</v>
+        <v>352864</v>
       </c>
       <c r="G8" t="n">
-        <v>1158713</v>
+        <v>2308797</v>
       </c>
       <c r="H8" t="n">
-        <v>147722</v>
+        <v>386736</v>
       </c>
       <c r="I8" t="n">
-        <v>31743</v>
+        <v>147735</v>
       </c>
       <c r="J8" t="n">
-        <v>4967</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20366</v>
-      </c>
-      <c r="C9" t="n">
-        <v>639746</v>
-      </c>
-      <c r="D9" t="n">
-        <v>667828</v>
-      </c>
-      <c r="E9" t="n">
-        <v>94557</v>
-      </c>
-      <c r="F9" t="n">
-        <v>307532</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1268736</v>
-      </c>
-      <c r="H9" t="n">
-        <v>134864</v>
-      </c>
-      <c r="I9" t="n">
-        <v>39792</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>21050</v>
-      </c>
-      <c r="C10" t="n">
-        <v>782007</v>
-      </c>
-      <c r="D10" t="n">
-        <v>811839</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106632</v>
-      </c>
-      <c r="F10" t="n">
-        <v>333832</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1444887</v>
-      </c>
-      <c r="H10" t="n">
-        <v>123327</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45491</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>22670</v>
-      </c>
-      <c r="C11" t="n">
-        <v>914240</v>
-      </c>
-      <c r="D11" t="n">
-        <v>950984</v>
-      </c>
-      <c r="E11" t="n">
-        <v>115242</v>
-      </c>
-      <c r="F11" t="n">
-        <v>318055</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1686711</v>
-      </c>
-      <c r="H11" t="n">
-        <v>171426</v>
-      </c>
-      <c r="I11" t="n">
-        <v>81850</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26484</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24079</v>
-      </c>
-      <c r="C12" t="n">
-        <v>971043</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1009651</v>
-      </c>
-      <c r="E12" t="n">
-        <v>155358</v>
-      </c>
-      <c r="F12" t="n">
-        <v>269398</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1853632</v>
-      </c>
-      <c r="H12" t="n">
-        <v>221473</v>
-      </c>
-      <c r="I12" t="n">
-        <v>146323</v>
-      </c>
-      <c r="J12" t="n">
-        <v>27350</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26854</v>
-      </c>
-      <c r="C13" t="n">
-        <v>953888</v>
-      </c>
-      <c r="D13" t="n">
-        <v>987571</v>
-      </c>
-      <c r="E13" t="n">
-        <v>123851</v>
-      </c>
-      <c r="F13" t="n">
-        <v>262050</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2009082</v>
-      </c>
-      <c r="H13" t="n">
-        <v>392691</v>
-      </c>
-      <c r="I13" t="n">
-        <v>191068</v>
-      </c>
-      <c r="J13" t="n">
-        <v>24997</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>30254</v>
-      </c>
-      <c r="C14" t="n">
-        <v>980968</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1015701</v>
-      </c>
-      <c r="E14" t="n">
-        <v>137111</v>
-      </c>
-      <c r="F14" t="n">
-        <v>267184</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2082831</v>
-      </c>
-      <c r="H14" t="n">
-        <v>381916</v>
-      </c>
-      <c r="I14" t="n">
-        <v>218331</v>
-      </c>
-      <c r="J14" t="n">
-        <v>32334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>39767</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1097269</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1135639</v>
-      </c>
-      <c r="E15" t="n">
-        <v>188538</v>
-      </c>
-      <c r="F15" t="n">
-        <v>335496</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2325492</v>
-      </c>
-      <c r="H15" t="n">
-        <v>397613</v>
-      </c>
-      <c r="I15" t="n">
-        <v>218423</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10016</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>47670</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1112696</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1151970</v>
-      </c>
-      <c r="E16" t="n">
-        <v>180905</v>
-      </c>
-      <c r="F16" t="n">
-        <v>352864</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2308797</v>
-      </c>
-      <c r="H16" t="n">
-        <v>386736</v>
-      </c>
-      <c r="I16" t="n">
-        <v>147735</v>
-      </c>
-      <c r="J16" t="n">
         <v>40917</v>
       </c>
     </row>
